--- a/tests/test7/E42FF2023_fitdata.xlsx
+++ b/tests/test7/E42FF2023_fitdata.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mnt\Data1\USDA-ALARC\Simulation Modeling\FAO56\pyfao56\tests\test7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91281A7B-FB32-4EB0-8339-9D4D6A632935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C494A4E1-DB98-462A-A3BF-F95E61931AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="-28050" windowWidth="22350" windowHeight="23280"/>
+    <workbookView xWindow="16980" yWindow="-22065" windowWidth="17340" windowHeight="21300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dr" sheetId="1" r:id="rId1"/>
     <sheet name="Drmax" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>sDr</t>
   </si>
@@ -116,11 +129,14 @@
   <si>
     <t>d</t>
   </si>
+  <si>
+    <t>kge</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000"/>
@@ -666,9 +682,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -706,7 +722,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -812,7 +828,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -954,24 +970,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:B53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -994,24 +1012,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>4.5990600376071598</v>
+        <v>5.8053502526467797</v>
       </c>
       <c r="B2" s="1">
         <v>16.724119999987298</v>
       </c>
       <c r="C2">
         <f>(A2-B2)</f>
-        <v>-12.125059962380139</v>
+        <v>-10.918769747340519</v>
       </c>
       <c r="D2">
         <f>ABS(C2)</f>
-        <v>12.125059962380139</v>
+        <v>10.918769747340519</v>
       </c>
       <c r="E2">
         <f>C2*C2</f>
-        <v>147.01707909131383</v>
+        <v>119.21953279543855</v>
       </c>
       <c r="F2" s="3">
         <f>(B2-AVERAGE(B$2:B$35))^2</f>
@@ -1019,27 +1037,27 @@
       </c>
       <c r="G2" s="2">
         <f>(ABS(A2-AVERAGE($B$2:$B$35))+ABS(B2-AVERAGE($B$2:$B$35)))^2</f>
-        <v>2428.9619945275658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2311.5143090757251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>16.5800450376071</v>
+        <v>19.531756791115399</v>
       </c>
       <c r="B3" s="1">
         <v>25.892970000131101</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C35" si="0">(A3-B3)</f>
-        <v>-9.3129249625240007</v>
+        <v>-6.3612132090157019</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D35" si="1">ABS(C3)</f>
-        <v>9.3129249625240007</v>
+        <v>6.3612132090157019</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E35" si="2">C3*C3</f>
-        <v>86.730571357602656</v>
+        <v>40.465033490555847</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F35" si="3">(B3-AVERAGE(B$2:B$35))^2</f>
@@ -1047,27 +1065,27 @@
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G35" si="4">(ABS(A3-AVERAGE($B$2:$B$35))+ABS(B3-AVERAGE($B$2:$B$35)))^2</f>
-        <v>791.55940563915487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>634.18116194201264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>33.564886037607103</v>
+        <v>35.022504580566299</v>
       </c>
       <c r="B4" s="1">
         <v>42.824920000077597</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>-9.2600339624704944</v>
+        <v>-7.8024154195112985</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>9.2600339624704944</v>
+        <v>7.8024154195112985</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>85.748228986107009</v>
+        <v>60.877686378627672</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="3"/>
@@ -1075,27 +1093,27 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" si="4"/>
-        <v>85.748228986107009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60.877686378627672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>42.941475037607098</v>
+        <v>42.7978289045815</v>
       </c>
       <c r="B5" s="1">
         <v>54.768690000333102</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>-11.827214962726003</v>
+        <v>-11.970861095751602</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>11.827214962726003</v>
+        <v>11.970861095751602</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>139.88301377452987</v>
+        <v>143.30151537377924</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="3"/>
@@ -1103,27 +1121,27 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" si="4"/>
-        <v>734.54466334569963</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>726.77896338406401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>55.290736241243799</v>
+        <v>55.192498279199299</v>
       </c>
       <c r="B6" s="1">
         <v>60.1123200001825</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>-4.8215837589387007</v>
+        <v>-4.9198217209832009</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>4.8215837589387007</v>
+        <v>4.9198217209832009</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>23.24766994446145</v>
+        <v>24.204645766258103</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="3"/>
@@ -1131,27 +1149,27 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="4"/>
-        <v>2006.6256799091807</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1997.8341177799957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>54.060138507708899</v>
+        <v>53.999086015709601</v>
       </c>
       <c r="B7" s="1">
         <v>54.112379999893299</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-5.2241492184400329E-2</v>
+        <v>-0.11329398418369863</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>5.2241492184400329E-2</v>
+        <v>0.11329398418369863</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>2.7291735056527607E-3</v>
+        <v>1.2835526852216155E-2</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="3"/>
@@ -1159,27 +1177,27 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" si="4"/>
-        <v>1411.1170479072016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1406.5339213809284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>26.373960054022699</v>
+        <v>26.3198171343866</v>
       </c>
       <c r="B8" s="1">
         <v>5.8498200003893102</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>20.524140053633388</v>
+        <v>20.469997133997289</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>20.524140053633388</v>
+        <v>20.469997133997289</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>421.24032494115835</v>
+        <v>419.02078266585721</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="3"/>
@@ -1187,27 +1205,27 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" si="4"/>
-        <v>1473.3238201915676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1477.4831845311617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>40.382660054022701</v>
+        <v>40.328517134386601</v>
       </c>
       <c r="B9" s="1">
         <v>32.099830000276299</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>8.2828300537464017</v>
+        <v>8.2286871341103023</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>8.2828300537464017</v>
+        <v>8.2286871341103023</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>68.60527369924462</v>
+        <v>67.711291951072425</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="3"/>
@@ -1215,27 +1233,27 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" si="4"/>
-        <v>68.60527369924462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67.711291951072425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>47.6666600540226</v>
+        <v>47.6125171343866</v>
       </c>
       <c r="B10" s="1">
         <v>43.199810000205098</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>4.4668500538175024</v>
+        <v>4.4127071341815025</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>4.4668500538175024</v>
+        <v>4.4127071341815025</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>19.952749403289424</v>
+        <v>19.47198425205633</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="3"/>
@@ -1243,27 +1261,27 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" si="4"/>
-        <v>410.41855062680929</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>408.22774206259783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>49.817860054022702</v>
+        <v>49.736625127967102</v>
       </c>
       <c r="B11" s="1">
         <v>38.249779999840499</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>11.568080054182204</v>
+        <v>11.486845128126603</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>11.568080054182204</v>
+        <v>11.486845128126603</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>133.82047613996815</v>
+        <v>131.94761099756587</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="3"/>
@@ -1271,27 +1289,27 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" si="4"/>
-        <v>304.85018454085633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>302.02006662182185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>36.654686768897101</v>
+        <v>36.585642127397499</v>
       </c>
       <c r="B12" s="1">
         <v>19.9497899996713</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>16.704896769225801</v>
+        <v>16.635852127726199</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>16.704896769225801</v>
+        <v>16.635852127726199</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>279.05357607049058</v>
+        <v>276.75157601557231</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="3"/>
@@ -1299,27 +1317,27 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" si="4"/>
-        <v>279.05357607049058</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>276.75157601557231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7.9140153888971199</v>
+        <v>7.8449707473975101</v>
       </c>
       <c r="B13" s="1">
         <v>24.7498200003335</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-16.83580461143638</v>
+        <v>-16.904849252935989</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>16.83580461143638</v>
+        <v>16.904849252935989</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>283.44431691446249</v>
+        <v>285.77392826449045</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="3"/>
@@ -1327,27 +1345,27 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" si="4"/>
-        <v>1439.7353884871454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1444.9797940274311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>17.983211389972801</v>
+        <v>18.047432581273601</v>
       </c>
       <c r="B14" s="1">
         <v>5.5499200002553204</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>12.433291389717482</v>
+        <v>12.497512581018281</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>12.433291389717482</v>
+        <v>12.497512581018281</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>154.58673478162288</v>
+        <v>156.18782071271022</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="3"/>
@@ -1355,27 +1373,27 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="4"/>
-        <v>2216.0131821969817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2209.9709392995032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>29.857213878328</v>
+        <v>29.897060114626701</v>
       </c>
       <c r="B15" s="1">
         <v>25.0499000002741</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>4.8073138780539004</v>
+        <v>4.8471601143526009</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>4.8073138780539004</v>
+        <v>4.8471601143526009</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>23.11026672212963</v>
+        <v>23.494961174170719</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="3"/>
@@ -1383,27 +1401,27 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" si="4"/>
-        <v>246.5077950041036</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>245.25816574437849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>36.500013878327998</v>
+        <v>36.566161344512501</v>
       </c>
       <c r="B16" s="1">
         <v>37.199919999830598</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>-0.69990612150260034</v>
+        <v>-0.63375865531809694</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>0.69990612150260034</v>
+        <v>0.63375865531809694</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>0.48986857891681274</v>
+        <v>0.40165003319060238</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="3"/>
@@ -1411,27 +1429,27 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" si="4"/>
-        <v>9.5620304089505908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9.9754953360895193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>56.778042114457797</v>
+        <v>56.799723395252101</v>
       </c>
       <c r="B17" s="1">
         <v>55.649849999696897</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1.1281921147608998</v>
+        <v>1.1498733955552041</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>1.1281921147608998</v>
+        <v>1.1498733955552041</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>1.2728174478086711</v>
+        <v>1.3222088258056548</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="3"/>
@@ -1439,27 +1457,27 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" si="4"/>
-        <v>1748.9300920714127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1750.7439936472902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>34.948366251710702</v>
+        <v>34.865502366235503</v>
       </c>
       <c r="B18" s="1">
         <v>27.299820000359901</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>7.6485462513508011</v>
+        <v>7.5656823658756025</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>7.6485462513508011</v>
+        <v>7.5656823658756025</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>58.500259759052391</v>
+        <v>57.239549661321057</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="3"/>
@@ -1467,27 +1485,27 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" si="4"/>
-        <v>69.881145556615266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71.273412342738794</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>34.748366251710699</v>
+        <v>34.665502366235501</v>
       </c>
       <c r="B19" s="1">
         <v>40.499810000208903</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>-5.7514437484982039</v>
+        <v>-5.8343076339734026</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>5.7514437484982039</v>
+        <v>5.8343076339734026</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>33.079105192139075</v>
+        <v>34.039145567840322</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="3"/>
@@ -1495,27 +1513,27 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" si="4"/>
-        <v>33.079105192139075</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34.039145567840322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>52.837907484043598</v>
+        <v>52.762982061733403</v>
       </c>
       <c r="B20" s="1">
         <v>50.849809999931303</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>1.9880974841122949</v>
+        <v>1.9131720618021006</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>1.9880974841122949</v>
+        <v>1.9131720618021006</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>3.9525316063336366</v>
+        <v>3.6602273380601007</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="3"/>
@@ -1523,27 +1541,27 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="4"/>
-        <v>1094.2888410225212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1089.3373833725316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>32.357761358173001</v>
+        <v>32.290763631916199</v>
       </c>
       <c r="B21" s="1">
         <v>16.949750000051399</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>15.408011358121602</v>
+        <v>15.341013631864801</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>15.408011358121602</v>
+        <v>15.341013631864801</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>237.40681401200428</v>
+        <v>235.34669925306164</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="3"/>
@@ -1551,27 +1569,27 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" si="4"/>
-        <v>453.69720922772899</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>456.55582373764616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>38.607761358173001</v>
+        <v>38.540763631916199</v>
       </c>
       <c r="B22" s="1">
         <v>29.6997799996407</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>8.9079813585323002</v>
+        <v>8.8409836322754991</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>8.9079813585323002</v>
+        <v>8.8409836322754991</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>79.352131883958961</v>
+        <v>78.162991586163272</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="3"/>
@@ -1579,27 +1597,27 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" si="4"/>
-        <v>79.352131883958961</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78.162991586163272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41.797761358172998</v>
+        <v>41.730763631916197</v>
       </c>
       <c r="B23" s="1">
         <v>40.199849999997198</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>1.5979113581758</v>
+        <v>1.5309136319189989</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>1.5979113581758</v>
+        <v>1.5309136319189989</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>2.5533207085872296</v>
+        <v>2.3436965483954202</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="3"/>
@@ -1607,27 +1625,27 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" si="4"/>
-        <v>129.7305229435751</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128.20881271128459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>39.531739501608797</v>
+        <v>39.781891127313699</v>
       </c>
       <c r="B24" s="1">
         <v>35.399820000072701</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4.1319195015360961</v>
+        <v>4.382071127240998</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>4.1319195015360961</v>
+        <v>4.382071127240998</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>17.0727587671743</v>
+        <v>19.202547364199191</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="3"/>
@@ -1635,27 +1653,27 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" si="4"/>
-        <v>18.695928858017631</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20.921755372952507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24.5517395016088</v>
+        <v>24.801891127313699</v>
       </c>
       <c r="B25" s="1">
         <v>23.099879999669799</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>1.4518595019390013</v>
+        <v>1.7020111276438996</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>1.4518595019390013</v>
+        <v>1.7020111276438996</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>2.1078960133705649</v>
+        <v>2.8968418786236589</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="3"/>
@@ -1663,27 +1681,27 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" si="4"/>
-        <v>526.98074062876219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>515.55832446323132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42.804129501608799</v>
+        <v>43.494108844216598</v>
       </c>
       <c r="B26" s="1">
         <v>39.899939999894002</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>2.9041895017147965</v>
+        <v>3.5941688443225956</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>2.9041895017147965</v>
+        <v>3.5941688443225956</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>8.4343166618704384</v>
+        <v>12.918049681499223</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="3"/>
@@ -1691,27 +1709,27 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" si="4"/>
-        <v>146.32262474066547</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>163.49121317447987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>54.169453453406199</v>
+        <v>54.716566278749902</v>
       </c>
       <c r="B27" s="1">
         <v>53.099829999709002</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>1.0696234536971971</v>
+        <v>1.6167362790409001</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>1.0696234536971971</v>
+        <v>1.6167362790409001</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>1.14409433269912</v>
+        <v>2.6138361959670151</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="3"/>
@@ -1719,27 +1737,27 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" si="4"/>
-        <v>1344.0731246210928</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1384.4885233147988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>31.952339076815999</v>
+        <v>32.537213760827598</v>
       </c>
       <c r="B28" s="1">
         <v>24.449799999312699</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>7.5025390775033003</v>
+        <v>8.0874137615148989</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>7.5025390775033003</v>
+        <v>8.0874137615148989</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>56.288092609464073</v>
+        <v>65.406261349940564</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="3"/>
@@ -1747,27 +1765,27 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" si="4"/>
-        <v>201.79740965260132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185.52256484236781</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>39.922339076816002</v>
+        <v>40.507213760827597</v>
       </c>
       <c r="B29" s="1">
         <v>24.149810000266601</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>15.7725290765494</v>
+        <v>16.357403760560995</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>15.7725290765494</v>
+        <v>16.357403760560995</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>248.77267347059629</v>
+        <v>267.564657786015</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="3"/>
@@ -1775,27 +1793,27 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" si="4"/>
-        <v>248.77267347059629</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>267.564657786015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>56.043047137411001</v>
+        <v>57.054431547015199</v>
       </c>
       <c r="B30" s="1">
         <v>37.1998499997202</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>18.843197137690801</v>
+        <v>19.854581547294998</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>18.843197137690801</v>
+        <v>19.854581547294998</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>355.06607836987877</v>
+        <v>394.20440841818703</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="3"/>
@@ -1803,27 +1821,27 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" si="4"/>
-        <v>512.35302821474579</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>559.16173688984304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>22.873240299411201</v>
+        <v>24.753046438266701</v>
       </c>
       <c r="B31" s="1">
         <v>27.5998200003081</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>-4.7265797008968988</v>
+        <v>-2.846773562041399</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>4.7265797008968988</v>
+        <v>2.846773562041399</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>22.340555668930616</v>
+        <v>8.1041197135378749</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="3"/>
@@ -1831,27 +1849,27 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" si="4"/>
-        <v>405.40293416331173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>333.23823963918159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>50.231820299411197</v>
+        <v>52.784317159411401</v>
       </c>
       <c r="B32" s="1">
         <v>31.949839999954101</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>18.281980299457096</v>
+        <v>20.8344771594573</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>18.281980299457096</v>
+        <v>20.8344771594573</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>334.23080366973738</v>
+        <v>434.07543850794792</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="3"/>
@@ -1859,27 +1877,27 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" si="4"/>
-        <v>334.23080366973738</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>434.07543850794792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>66.669047016544397</v>
+        <v>68.3307694738469</v>
       </c>
       <c r="B33" s="1">
         <v>45.449810000146499</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>21.219237016397898</v>
+        <v>22.880959473700401</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>21.219237016397898</v>
+        <v>22.880959473700401</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>450.25601955807076</v>
+        <v>523.53830643712013</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="3"/>
@@ -1887,27 +1905,27 @@
       </c>
       <c r="G33" s="2">
         <f t="shared" si="4"/>
-        <v>1723.1777684731478</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1863.8991981986244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>81.278489991839194</v>
+        <v>80.506801500261105</v>
       </c>
       <c r="B34" s="1">
         <v>48.149779999844398</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>33.128709991994796</v>
+        <v>32.357021500416707</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>33.128709991994796</v>
+        <v>32.357021500416707</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>1097.5114257336959</v>
+        <v>1046.976840378429</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="3"/>
@@ -1915,27 +1933,27 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" si="4"/>
-        <v>3459.8617377673254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3369.6748970744197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>88.336773322896704</v>
+        <v>87.381707470797807</v>
       </c>
       <c r="B35" s="1">
         <v>62.399729999784199</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>25.937043323112505</v>
+        <v>24.981977471013607</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>25.937043323112505</v>
+        <v>24.981977471013607</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>672.73021634501492</v>
+        <v>624.09919836223139</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="3"/>
@@ -1943,142 +1961,151 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" si="4"/>
-        <v>6420.6282328058523</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6268.4837788626164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
       <c r="B38">
         <f>SUM(C2:C35)</f>
-        <v>190.29617677546543</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>203.26315784395737</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
       <c r="B39">
         <f>SUM(C2:C35)/AVERAGE(B2:B35)</f>
-        <v>5.3902401322366371</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5.7575367481418986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40">
         <f>SUM(C2:C35)/AVERAGE(B2:B35)*100</f>
-        <v>539.0240132236637</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>575.75367481418982</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" cm="1">
         <f t="array" ref="B41">MAX(ABS(C2:C35))</f>
-        <v>33.128709991994796</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32.357021500416707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
       <c r="B42">
         <f>AVERAGE(C2:C35)</f>
-        <v>5.596946375748983</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5.978328171881099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
       <c r="B43">
         <f>AVERAGE(D2:D35)</f>
-        <v>10.03299303948768</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9.996331953119622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
       <c r="B44">
         <f>SUM(E2:E35)</f>
-        <v>5549.0047913891904</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5582.5578802525433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
       <c r="B45">
         <f>CORREL(A2:A35,B2:B35)</f>
-        <v>0.76420832828449203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.76464279659174816</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
       <c r="B46">
         <f>B45^2</f>
-        <v>0.58401436901937798</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.58467860637964952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
       <c r="B47">
         <f>SQRT(AVERAGE(E2:E35))</f>
-        <v>12.775211281076828</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12.813776915139313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
       <c r="B48">
         <f>B47/AVERAGE(B2:B35)</f>
-        <v>0.36186463497011639</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.36295702700852311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
       <c r="B49">
         <f>B48*100</f>
-        <v>36.186463497011637</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36.29570270085231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
       <c r="B50">
         <f>(SUM(A2:A35)-SUM(B2:B35))/SUM(B2:B35)</f>
-        <v>0.15853647447754801</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.16933931612182052</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
       <c r="B51">
         <f>1-SUM(E2:E35)/SUM(F2:F35)</f>
-        <v>0.21543535642292666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.21069134047869165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>23</v>
       </c>
       <c r="B52">
         <f>1-SUM(E2:E35)/SUM(G2:G35)</f>
-        <v>0.83112104902665451</v>
+        <v>0.82851655446491934</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53">
+        <f>1-SQRT((B45-1)^2+(STDEV(A2:A35)/STDEV(B2:B35)-1)^2+(AVERAGE(A2:A35)/AVERAGE(B2:B35)-1)^2)</f>
+        <v>0.63946457302590765</v>
       </c>
     </row>
   </sheetData>
@@ -2087,18 +2114,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:B53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2121,24 +2150,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>4.5990600376071598</v>
+        <v>5.8053502526467797</v>
       </c>
       <c r="B2" s="1">
         <v>30.299999999650499</v>
       </c>
       <c r="C2">
         <f>(A2-B2)</f>
-        <v>-25.700939962043339</v>
+        <v>-24.49464974700372</v>
       </c>
       <c r="D2">
         <f>ABS(C2)</f>
-        <v>25.700939962043339</v>
+        <v>24.49464974700372</v>
       </c>
       <c r="E2">
         <f>C2*C2</f>
-        <v>660.53831493255632</v>
+        <v>599.98786622838941</v>
       </c>
       <c r="F2" s="3">
         <f>(B2-AVERAGE(B$2:B$35))^2</f>
@@ -2146,27 +2175,27 @@
       </c>
       <c r="G2" s="2">
         <f>(ABS(A2-AVERAGE($B$2:$B$35))+ABS(B2-AVERAGE($B$2:$B$35)))^2</f>
-        <v>1367.9815114426974</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1280.2043830011376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>16.5800450376071</v>
+        <v>19.531756791115399</v>
       </c>
       <c r="B3" s="1">
         <v>30.149999999624399</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C35" si="0">(A3-B3)</f>
-        <v>-13.569954962017299</v>
+        <v>-10.618243208509</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D35" si="1">ABS(C3)</f>
-        <v>13.569954962017299</v>
+        <v>10.618243208509</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E35" si="2">C3*C3</f>
-        <v>184.1436776711779</v>
+        <v>112.74708883504751</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F35" si="3">(B3-AVERAGE(B$2:B$35))^2</f>
@@ -2174,27 +2203,27 @@
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G35" si="4">(ABS(A3-AVERAGE($B$2:$B$35))+ABS(B3-AVERAGE($B$2:$B$35)))^2</f>
-        <v>632.78655629321747</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>492.99706982336522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>33.564886037607103</v>
+        <v>35.022504580566299</v>
       </c>
       <c r="B4" s="1">
         <v>43.949999999635303</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>-10.3851139620282</v>
+        <v>-8.9274954190690039</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>10.3851139620282</v>
+        <v>8.9274954190690039</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>107.85059200431306</v>
+        <v>79.700174457498051</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="3"/>
@@ -2202,27 +2231,27 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" si="4"/>
-        <v>107.85059200431306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79.700174457498051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>42.941475037607098</v>
+        <v>42.7978289045815</v>
       </c>
       <c r="B5" s="1">
         <v>55.500000000113602</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>-12.558524962506503</v>
+        <v>-12.702171095532101</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>12.558524962506503</v>
+        <v>12.702171095532101</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>157.71654923389897</v>
+        <v>161.34515054017118</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="3"/>
@@ -2230,27 +2259,27 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" si="4"/>
-        <v>705.23074506446608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>697.62199388177987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>55.290736241243799</v>
+        <v>55.192498279199299</v>
       </c>
       <c r="B6" s="1">
         <v>61.799999999960498</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>-6.509263758716699</v>
+        <v>-6.6075017207611992</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>6.509263758716699</v>
+        <v>6.6075017207611992</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>42.370514680542648</v>
+        <v>43.659078989862209</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="3"/>
@@ -2258,27 +2287,27 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="4"/>
-        <v>2043.5319975944246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2034.6598672765158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>54.060138507708899</v>
+        <v>53.999086015709601</v>
       </c>
       <c r="B7" s="1">
         <v>54.4499999998405</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-0.38986149213160104</v>
+        <v>-0.45091398413089934</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>0.38986149213160104</v>
+        <v>0.45091398413089934</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>0.15199198304707842</v>
+        <v>0.20332342108480095</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="3"/>
@@ -2286,27 +2315,27 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" si="4"/>
-        <v>1341.379226591157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1336.9108779597452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>26.373960054022699</v>
+        <v>26.3198171343866</v>
       </c>
       <c r="B8" s="1">
         <v>5.8500000003893096</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>20.523960053633388</v>
+        <v>20.469817133997289</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>20.523960053633388</v>
+        <v>20.469817133997289</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>421.23293628313905</v>
+        <v>419.01341349928896</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="3"/>
@@ -2314,27 +2343,27 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" si="4"/>
-        <v>1573.0214196683864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1577.3191119698151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>40.382660054022701</v>
+        <v>40.328517134386601</v>
       </c>
       <c r="B9" s="1">
         <v>32.100000000276303</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>8.2826600537463975</v>
+        <v>8.2285171341102981</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>8.2826600537463975</v>
+        <v>8.2285171341102981</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>68.602457565926272</v>
+        <v>67.708494226346758</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="3"/>
@@ -2342,27 +2371,27 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" si="4"/>
-        <v>68.602457565926272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67.708494226346758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>47.6666600540226</v>
+        <v>47.6125171343866</v>
       </c>
       <c r="B10" s="1">
         <v>43.200000000205101</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>4.466660053817499</v>
+        <v>4.412517134181499</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>4.466660053817499</v>
+        <v>4.412517134181499</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>19.951052036368942</v>
+        <v>19.470307459445308</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="3"/>
@@ -2370,27 +2399,27 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" si="4"/>
-        <v>360.29225282180244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>358.23977113656781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>49.817860054022702</v>
+        <v>49.736625127967102</v>
       </c>
       <c r="B11" s="1">
         <v>38.249999999840497</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>11.567860054182205</v>
+        <v>11.486625128126605</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>11.567860054182205</v>
+        <v>11.486625128126605</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>133.81538623314432</v>
+        <v>131.94255683410952</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="3"/>
@@ -2398,27 +2427,27 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" si="4"/>
-        <v>261.87544028289744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>259.25286030165728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>36.654686768897101</v>
+        <v>36.585642127397499</v>
       </c>
       <c r="B12" s="1">
         <v>19.949999999671299</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>16.704686769225802</v>
+        <v>16.6356421277262</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>16.704686769225802</v>
+        <v>16.6356421277262</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>279.04656005794754</v>
+        <v>276.74458900177871</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="3"/>
@@ -2426,27 +2455,27 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" si="4"/>
-        <v>279.04656005794754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>276.74458900177871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7.9140153888971199</v>
+        <v>7.8449707473975101</v>
       </c>
       <c r="B13" s="1">
         <v>24.7500000003335</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-16.83598461143638</v>
+        <v>-16.905029252935989</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>16.83598461143638</v>
+        <v>16.905029252935989</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>283.45037783652259</v>
+        <v>285.78001404262153</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="3"/>
@@ -2454,27 +2483,27 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" si="4"/>
-        <v>1538.3087050850681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1543.729510505495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>17.983211389972801</v>
+        <v>18.047432581273601</v>
       </c>
       <c r="B14" s="1">
         <v>5.55000000025532</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>12.433211389717481</v>
+        <v>12.49743258101828</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>12.433211389717481</v>
+        <v>12.49743258101828</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>154.5847454614005</v>
+        <v>156.18582111709725</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="3"/>
@@ -2482,27 +2511,27 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="4"/>
-        <v>2337.923904070457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2331.717571722621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>29.857213878328</v>
+        <v>29.897060114626701</v>
       </c>
       <c r="B15" s="1">
         <v>25.0500000002741</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>4.8072138780539007</v>
+        <v>4.8470601143526011</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>4.8072138780539007</v>
+        <v>4.8470601143526011</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>23.109305269354024</v>
+        <v>23.493991752147849</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="3"/>
@@ -2510,27 +2539,27 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" si="4"/>
-        <v>288.2552086003912</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>286.90377112873898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>36.500013878327998</v>
+        <v>36.566161344512501</v>
       </c>
       <c r="B16" s="1">
         <v>37.199999999830602</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>-0.69998612150260442</v>
+        <v>-0.63383865531810102</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>0.69998612150260442</v>
+        <v>0.63383865531810102</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>0.48998057029625885</v>
+        <v>0.40175144097545845</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="3"/>
@@ -2538,27 +2567,27 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" si="4"/>
-        <v>3.2932078095178952</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3.5376615247980125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>56.778042114457797</v>
+        <v>56.799723395252101</v>
       </c>
       <c r="B17" s="1">
         <v>55.649999999696902</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1.1280421147608948</v>
+        <v>1.1497233955551991</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>1.1280421147608948</v>
+        <v>1.1497233955551991</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>1.2724790126742318</v>
+        <v>1.3218638862869767</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="3"/>
@@ -2566,27 +2595,27 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" si="4"/>
-        <v>1643.714415115626</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1645.4729226005368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>34.948366251710702</v>
+        <v>34.865502366235503</v>
       </c>
       <c r="B18" s="1">
         <v>27.300000000359901</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>7.6483662513508008</v>
+        <v>7.5655023658756022</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>7.6483662513508008</v>
+        <v>7.5655023658756022</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>58.497506314801903</v>
+        <v>57.236826048069332</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="3"/>
@@ -2594,27 +2623,27 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" si="4"/>
-        <v>92.870378684588374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94.474351682061254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>34.748366251710699</v>
+        <v>34.665502366235501</v>
       </c>
       <c r="B19" s="1">
         <v>40.5000000002089</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>-5.7516337484982003</v>
+        <v>-5.8344976339733989</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>5.7516337484982003</v>
+        <v>5.8344976339733989</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>33.081290776863462</v>
+        <v>34.041362640841193</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="3"/>
@@ -2622,27 +2651,27 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" si="4"/>
-        <v>33.081290776863462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34.041362640841193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>52.837907484043598</v>
+        <v>52.762982061733403</v>
       </c>
       <c r="B20" s="1">
         <v>50.849999999931299</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>1.9879074841122986</v>
+        <v>1.9129820618021043</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>1.9879074841122986</v>
+        <v>1.9129820618021043</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>3.9517761653896883</v>
+        <v>3.6595003687766301</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="3"/>
@@ -2650,27 +2679,27 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="4"/>
-        <v>1011.4062169338616</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1006.6461822786766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>32.357761358173001</v>
+        <v>32.290763631916199</v>
       </c>
       <c r="B21" s="1">
         <v>16.9500000000514</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>15.407761358121601</v>
+        <v>15.3407636318648</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>15.407761358121601</v>
+        <v>15.3407636318648</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>237.39911006882519</v>
+        <v>235.33902880874567</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="3"/>
@@ -2678,27 +2707,27 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" si="4"/>
-        <v>509.74498549873715</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>512.77476091278811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>38.607761358173001</v>
+        <v>38.540763631916199</v>
       </c>
       <c r="B22" s="1">
         <v>29.699999999640699</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>8.9077613585323014</v>
+        <v>8.8407636322755003</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>8.9077613585323014</v>
+        <v>8.8407636322755003</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>79.348212420561239</v>
+        <v>78.159101601765101</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="3"/>
@@ -2706,27 +2735,27 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" si="4"/>
-        <v>79.348212420561239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78.159101601765101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41.797761358172998</v>
+        <v>41.730763631916197</v>
       </c>
       <c r="B23" s="1">
         <v>40.199999999997203</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>1.597761358175795</v>
+        <v>1.5307636319189939</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>1.597761358175795</v>
+        <v>1.5307636319189939</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>2.5528413576797613</v>
+        <v>2.343237296805829</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="3"/>
@@ -2734,27 +2763,27 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" si="4"/>
-        <v>102.26199369247499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100.91145776386362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>39.531739501608797</v>
+        <v>39.781891127313699</v>
       </c>
       <c r="B24" s="1">
         <v>35.400000000072701</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4.1317395015360958</v>
+        <v>4.3818911272409977</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>4.1317395015360958</v>
+        <v>4.3818911272409977</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>17.071271308553744</v>
+        <v>19.200969850993381</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="3"/>
@@ -2762,27 +2791,27 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" si="4"/>
-        <v>17.071271308553744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19.200969850993381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24.5517395016088</v>
+        <v>24.801891127313699</v>
       </c>
       <c r="B25" s="1">
         <v>23.099999999669802</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>1.4517395019389987</v>
+        <v>1.7018911276438971</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>1.4517395019389987</v>
+        <v>1.7018911276438971</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>2.1075475814900919</v>
+        <v>2.8964334103530156</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="3"/>
@@ -2790,27 +2819,27 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" si="4"/>
-        <v>587.26516934014853</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>575.20361900825037</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42.804129501608799</v>
+        <v>43.494108844216598</v>
       </c>
       <c r="B26" s="1">
         <v>39.899999999894</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>2.9041295017147988</v>
+        <v>3.5941088443225979</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>2.9041295017147988</v>
+        <v>3.5941088443225979</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>8.4339681627302454</v>
+        <v>12.917618384837921</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="3"/>
@@ -2818,27 +2847,27 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" si="4"/>
-        <v>117.04719906491742</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>132.45281641013673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>54.169453453406199</v>
+        <v>54.716566278749902</v>
       </c>
       <c r="B27" s="1">
         <v>53.099999999708999</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>1.0694534536972</v>
+        <v>1.616566279040903</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>1.0694534536972</v>
+        <v>1.616566279040903</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>1.1437306896248691</v>
+        <v>2.6132865345321505</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="3"/>
@@ -2846,27 +2875,27 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" si="4"/>
-        <v>1252.0387318841697</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1291.0563191008032</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>31.952339076815999</v>
+        <v>32.537213760827598</v>
       </c>
       <c r="B28" s="1">
         <v>24.449999999312599</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>7.5023390775034002</v>
+        <v>8.0872137615149988</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>7.5023390775034002</v>
+        <v>8.0872137615149988</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>56.285091633834568</v>
+        <v>65.40302642443757</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="3"/>
@@ -2874,27 +2903,27 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" si="4"/>
-        <v>239.72189681489346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>221.95279833604866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>39.922339076816002</v>
+        <v>40.507213760827597</v>
       </c>
       <c r="B29" s="1">
         <v>24.150000000266601</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>15.7723390765494</v>
+        <v>16.357213760560995</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>15.7723390765494</v>
+        <v>16.357213760560995</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>248.76667994564718</v>
+        <v>267.55844200868597</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="3"/>
@@ -2902,27 +2931,27 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" si="4"/>
-        <v>248.76667994564718</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>267.55844200868597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>56.043047137411001</v>
+        <v>57.054431547015199</v>
       </c>
       <c r="B30" s="1">
         <v>37.199999999720198</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>18.843047137690803</v>
+        <v>19.854431547295</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>18.843047137690803</v>
+        <v>19.854431547295</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>355.06042543323758</v>
+        <v>394.19845206622296</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="3"/>
@@ -2930,27 +2959,27 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" si="4"/>
-        <v>456.15361404513044</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>500.37830932546944</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>22.873240299411201</v>
+        <v>24.753046438266701</v>
       </c>
       <c r="B31" s="1">
         <v>27.6000000003081</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>-4.7267597008968991</v>
+        <v>-2.8469535620413993</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>4.7267597008968991</v>
+        <v>2.8469535620413993</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>22.342257270022944</v>
+        <v>8.105144584420211</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="3"/>
@@ -2958,27 +2987,27 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" si="4"/>
-        <v>458.4760486979784</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>381.50869939310587</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>50.231820299411197</v>
+        <v>52.784317159411401</v>
       </c>
       <c r="B32" s="1">
         <v>31.949999999954098</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>18.281820299457099</v>
+        <v>20.834317159457303</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>18.281820299457099</v>
+        <v>20.834317159457303</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>334.22495346164163</v>
+        <v>434.068771500857</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="3"/>
@@ -2986,27 +3015,27 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" si="4"/>
-        <v>334.22495346164163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>434.068771500857</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>66.669047016544397</v>
+        <v>68.3307694738469</v>
       </c>
       <c r="B33" s="1">
         <v>45.450000000146503</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>21.219047016397894</v>
+        <v>22.880769473700397</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>21.219047016397894</v>
+        <v>22.880769473700397</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>450.24795628410436</v>
+        <v>523.52961170862</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="3"/>
@@ -3014,27 +3043,27 @@
       </c>
       <c r="G33" s="2">
         <f t="shared" si="4"/>
-        <v>1618.7548723485647</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1755.230855341769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>81.278489991839194</v>
+        <v>80.506801500261105</v>
       </c>
       <c r="B34" s="1">
         <v>48.149999999844297</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>33.128489991994897</v>
+        <v>32.356801500416807</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>33.128489991994897</v>
+        <v>32.356801500416807</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>1097.4968491497061</v>
+        <v>1046.9626033373754</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="3"/>
@@ -3042,27 +3071,27 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" si="4"/>
-        <v>3311.2193914080872</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3223.0040504867466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>88.336773322896704</v>
+        <v>87.381707470797807</v>
       </c>
       <c r="B35" s="1">
         <v>62.3999999997842</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>25.936773323112504</v>
+        <v>24.981707471013607</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>25.936773323112504</v>
+        <v>24.981707471013607</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>672.71621041452045</v>
+        <v>624.08570816729707</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="3"/>
@@ -3070,142 +3099,151 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" si="4"/>
-        <v>6217.5557728360864</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6067.8512132653314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
       <c r="B38">
         <f>SUM(C2:C35)</f>
-        <v>168.57674677724572</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>181.54372784573766</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
       <c r="B39">
         <f>SUM(C2:C35)/AVERAGE(B2:B35)</f>
-        <v>4.6901594782811946</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5.0509281508635597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40">
         <f>SUM(C2:C35)/AVERAGE(B2:B35)*100</f>
-        <v>469.01594782811947</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>505.09281508635598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" cm="1">
         <f t="array" ref="B41">MAX(ABS(C2:C35))</f>
-        <v>33.128489991994897</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32.356801500416807</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
       <c r="B42">
         <f>AVERAGE(C2:C35)</f>
-        <v>4.9581396110954623</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5.3395214072275783</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
       <c r="B43">
         <f>AVERAGE(D2:D35)</f>
-        <v>10.67155274531768</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10.634891658949625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
       <c r="B44">
         <f>SUM(E2:E35)</f>
-        <v>6219.0545992715452</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6192.024610475788</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
       <c r="B45">
         <f>CORREL(A2:A35,B2:B35)</f>
-        <v>0.71089188316389795</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.7130129679308097</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
       <c r="B46">
         <f>B45^2</f>
-        <v>0.50536726954831312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.50838749243750192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
       <c r="B47">
         <f>SQRT(AVERAGE(E2:E35))</f>
-        <v>13.524546963459077</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13.495123967431596</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
       <c r="B48">
         <f>B47/AVERAGE(B2:B35)</f>
-        <v>0.37628132789835494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.37546271829569089</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
       <c r="B49">
         <f>B48*100</f>
-        <v>37.628132789835497</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37.546271829569086</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
       <c r="B50">
         <f>(SUM(A2:A35)-SUM(B2:B35))/SUM(B2:B35)</f>
-        <v>0.13794586700827063</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.14855671031951673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
       <c r="B51">
         <f>1-SUM(E2:E35)/SUM(F2:F35)</f>
-        <v>8.8550927830628456E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9.2512375316799011E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>23</v>
       </c>
       <c r="B52">
         <f>1-SUM(E2:E35)/SUM(G2:G35)</f>
-        <v>0.80092720490347524</v>
+        <v>0.80005858504964156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53">
+        <f>1-SQRT((B45-1)^2+(STDEV(A2:A35)/STDEV(B2:B35)-1)^2+(AVERAGE(A2:A35)/AVERAGE(B2:B35)-1)^2)</f>
+        <v>0.5996763754483081</v>
       </c>
     </row>
   </sheetData>
